--- a/www/IndicatorsPerCountry/Mauritania_CopperProduction_TerritorialRef_1979_2012_CCode_478.xlsx
+++ b/www/IndicatorsPerCountry/Mauritania_CopperProduction_TerritorialRef_1979_2012_CCode_478.xlsx
@@ -321,13 +321,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
-  </si>
-  <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
+  </si>
+  <si>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Mauritania_CopperProduction_TerritorialRef_1979_2012_CCode_478.xlsx
+++ b/www/IndicatorsPerCountry/Mauritania_CopperProduction_TerritorialRef_1979_2012_CCode_478.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="34">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,259 +39,46 @@
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
+    <t>7.7</t>
   </si>
   <si>
-    <t>3</t>
+    <t>14.9</t>
   </si>
   <si>
-    <t>6</t>
+    <t>21.8</t>
   </si>
   <si>
-    <t>8</t>
+    <t>20.2</t>
   </si>
   <si>
-    <t>9</t>
+    <t>6.6</t>
   </si>
   <si>
-    <t>69</t>
+    <t>9.4</t>
   </si>
   <si>
-    <t>106</t>
+    <t>2.8</t>
   </si>
   <si>
-    <t>140</t>
+    <t>5.031</t>
   </si>
   <si>
-    <t>146</t>
+    <t>31.956</t>
   </si>
   <si>
-    <t>145</t>
+    <t>33.073</t>
   </si>
   <si>
-    <t>211</t>
+    <t>35</t>
   </si>
   <si>
-    <t>216</t>
+    <t>37</t>
   </si>
   <si>
-    <t>215</t>
+    <t>35.281</t>
   </si>
   <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>281</t>
-  </si>
-  <si>
-    <t>314</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>373</t>
-  </si>
-  <si>
-    <t>398</t>
-  </si>
-  <si>
-    <t>359</t>
-  </si>
-  <si>
-    <t>404</t>
-  </si>
-  <si>
-    <t>436</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>543</t>
-  </si>
-  <si>
-    <t>576</t>
-  </si>
-  <si>
-    <t>575</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>588</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>696</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>663</t>
-  </si>
-  <si>
-    <t>815</t>
-  </si>
-  <si>
-    <t>833</t>
-  </si>
-  <si>
-    <t>684.1</t>
-  </si>
-  <si>
-    <t>651.4</t>
-  </si>
-  <si>
-    <t>717.1</t>
-  </si>
-  <si>
-    <t>706.6</t>
-  </si>
-  <si>
-    <t>698</t>
-  </si>
-  <si>
-    <t>676.9</t>
-  </si>
-  <si>
-    <t>708.9</t>
-  </si>
-  <si>
-    <t>656</t>
-  </si>
-  <si>
-    <t>643</t>
-  </si>
-  <si>
-    <t>588.3</t>
-  </si>
-  <si>
-    <t>595.8</t>
-  </si>
-  <si>
-    <t>587.4</t>
-  </si>
-  <si>
-    <t>566.9</t>
-  </si>
-  <si>
-    <t>542.8</t>
-  </si>
-  <si>
-    <t>564.8</t>
-  </si>
-  <si>
-    <t>519.6</t>
-  </si>
-  <si>
-    <t>543.5</t>
-  </si>
-  <si>
-    <t>527</t>
-  </si>
-  <si>
-    <t>476</t>
-  </si>
-  <si>
-    <t>510.2</t>
-  </si>
-  <si>
-    <t>496</t>
-  </si>
-  <si>
-    <t>423</t>
-  </si>
-  <si>
-    <t>432.6</t>
-  </si>
-  <si>
-    <t>396.2</t>
-  </si>
-  <si>
-    <t>373.2</t>
-  </si>
-  <si>
-    <t>323.7</t>
-  </si>
-  <si>
-    <t>333.8</t>
-  </si>
-  <si>
-    <t>353</t>
-  </si>
-  <si>
-    <t>315</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>249.1</t>
-  </si>
-  <si>
-    <t>312</t>
-  </si>
-  <si>
-    <t>330</t>
-  </si>
-  <si>
-    <t>378</t>
-  </si>
-  <si>
-    <t>402.9</t>
-  </si>
-  <si>
-    <t>432</t>
-  </si>
-  <si>
-    <t>474</t>
-  </si>
-  <si>
-    <t>528</t>
-  </si>
-  <si>
-    <t>534</t>
-  </si>
-  <si>
-    <t>686</t>
-  </si>
-  <si>
-    <t>668</t>
-  </si>
-  <si>
-    <t>690</t>
+    <t>37.67</t>
   </si>
   <si>
     <t>Description</t>
@@ -3775,7 +3562,7 @@
         <v>1926.0</v>
       </c>
       <c r="E200" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="201">
@@ -3792,7 +3579,7 @@
         <v>1927.0</v>
       </c>
       <c r="E201" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="202">
@@ -3809,7 +3596,7 @@
         <v>1928.0</v>
       </c>
       <c r="E202" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="203">
@@ -3826,7 +3613,7 @@
         <v>1929.0</v>
       </c>
       <c r="E203" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="204">
@@ -3843,7 +3630,7 @@
         <v>1930.0</v>
       </c>
       <c r="E204" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="205">
@@ -3860,7 +3647,7 @@
         <v>1931.0</v>
       </c>
       <c r="E205" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="206">
@@ -3877,7 +3664,7 @@
         <v>1932.0</v>
       </c>
       <c r="E206" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="207">
@@ -3894,7 +3681,7 @@
         <v>1933.0</v>
       </c>
       <c r="E207" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="208">
@@ -3911,7 +3698,7 @@
         <v>1934.0</v>
       </c>
       <c r="E208" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="209">
@@ -3928,7 +3715,7 @@
         <v>1935.0</v>
       </c>
       <c r="E209" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="210">
@@ -3945,7 +3732,7 @@
         <v>1936.0</v>
       </c>
       <c r="E210" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
     </row>
     <row r="211">
@@ -3962,7 +3749,7 @@
         <v>1937.0</v>
       </c>
       <c r="E211" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
     </row>
     <row r="212">
@@ -3979,7 +3766,7 @@
         <v>1938.0</v>
       </c>
       <c r="E212" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="213">
@@ -3996,7 +3783,7 @@
         <v>1939.0</v>
       </c>
       <c r="E213" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="214">
@@ -4013,7 +3800,7 @@
         <v>1940.0</v>
       </c>
       <c r="E214" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="215">
@@ -4030,7 +3817,7 @@
         <v>1941.0</v>
       </c>
       <c r="E215" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
     </row>
     <row r="216">
@@ -4047,7 +3834,7 @@
         <v>1942.0</v>
       </c>
       <c r="E216" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="217">
@@ -4064,7 +3851,7 @@
         <v>1943.0</v>
       </c>
       <c r="E217" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
     </row>
     <row r="218">
@@ -4081,7 +3868,7 @@
         <v>1944.0</v>
       </c>
       <c r="E218" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
     </row>
     <row r="219">
@@ -4098,7 +3885,7 @@
         <v>1945.0</v>
       </c>
       <c r="E219" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220">
@@ -4115,7 +3902,7 @@
         <v>1946.0</v>
       </c>
       <c r="E220" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
     <row r="221">
@@ -4132,7 +3919,7 @@
         <v>1947.0</v>
       </c>
       <c r="E221" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
     </row>
     <row r="222">
@@ -4149,7 +3936,7 @@
         <v>1948.0</v>
       </c>
       <c r="E222" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="223">
@@ -4166,7 +3953,7 @@
         <v>1949.0</v>
       </c>
       <c r="E223" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
     </row>
     <row r="224">
@@ -4183,7 +3970,7 @@
         <v>1950.0</v>
       </c>
       <c r="E224" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
@@ -4200,7 +3987,7 @@
         <v>1951.0</v>
       </c>
       <c r="E225" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
     </row>
     <row r="226">
@@ -4217,7 +4004,7 @@
         <v>1952.0</v>
       </c>
       <c r="E226" t="s">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="227">
@@ -4234,7 +4021,7 @@
         <v>1953.0</v>
       </c>
       <c r="E227" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="228">
@@ -4251,7 +4038,7 @@
         <v>1954.0</v>
       </c>
       <c r="E228" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
     </row>
     <row r="229">
@@ -4268,7 +4055,7 @@
         <v>1955.0</v>
       </c>
       <c r="E229" t="s">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="230">
@@ -4285,7 +4072,7 @@
         <v>1956.0</v>
       </c>
       <c r="E230" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="231">
@@ -4302,7 +4089,7 @@
         <v>1957.0</v>
       </c>
       <c r="E231" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="232">
@@ -4319,7 +4106,7 @@
         <v>1958.0</v>
       </c>
       <c r="E232" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="233">
@@ -4336,7 +4123,7 @@
         <v>1959.0</v>
       </c>
       <c r="E233" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
     </row>
     <row r="234">
@@ -4353,7 +4140,7 @@
         <v>1960.0</v>
       </c>
       <c r="E234" t="s">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="235">
@@ -4370,7 +4157,7 @@
         <v>1961.0</v>
       </c>
       <c r="E235" t="s">
-        <v>42</v>
+        <v>7</v>
       </c>
     </row>
     <row r="236">
@@ -4387,7 +4174,7 @@
         <v>1962.0</v>
       </c>
       <c r="E236" t="s">
-        <v>43</v>
+        <v>7</v>
       </c>
     </row>
     <row r="237">
@@ -4404,7 +4191,7 @@
         <v>1963.0</v>
       </c>
       <c r="E237" t="s">
-        <v>44</v>
+        <v>7</v>
       </c>
     </row>
     <row r="238">
@@ -4421,7 +4208,7 @@
         <v>1964.0</v>
       </c>
       <c r="E238" t="s">
-        <v>45</v>
+        <v>7</v>
       </c>
     </row>
     <row r="239">
@@ -4438,7 +4225,7 @@
         <v>1965.0</v>
       </c>
       <c r="E239" t="s">
-        <v>46</v>
+        <v>7</v>
       </c>
     </row>
     <row r="240">
@@ -4455,7 +4242,7 @@
         <v>1966.0</v>
       </c>
       <c r="E240" t="s">
-        <v>47</v>
+        <v>7</v>
       </c>
     </row>
     <row r="241">
@@ -4472,7 +4259,7 @@
         <v>1967.0</v>
       </c>
       <c r="E241" t="s">
-        <v>48</v>
+        <v>7</v>
       </c>
     </row>
     <row r="242">
@@ -4489,7 +4276,7 @@
         <v>1968.0</v>
       </c>
       <c r="E242" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
     </row>
     <row r="243">
@@ -4506,7 +4293,7 @@
         <v>1969.0</v>
       </c>
       <c r="E243" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="244">
@@ -4523,7 +4310,7 @@
         <v>1970.0</v>
       </c>
       <c r="E244" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
     </row>
     <row r="245">
@@ -4540,7 +4327,7 @@
         <v>1971.0</v>
       </c>
       <c r="E245" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
     </row>
     <row r="246">
@@ -4557,7 +4344,7 @@
         <v>1972.0</v>
       </c>
       <c r="E246" t="s">
-        <v>53</v>
+        <v>9</v>
       </c>
     </row>
     <row r="247">
@@ -4574,7 +4361,7 @@
         <v>1973.0</v>
       </c>
       <c r="E247" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
     </row>
     <row r="248">
@@ -4591,7 +4378,7 @@
         <v>1974.0</v>
       </c>
       <c r="E248" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="249">
@@ -4608,7 +4395,7 @@
         <v>1975.0</v>
       </c>
       <c r="E249" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250">
@@ -4625,7 +4412,7 @@
         <v>1976.0</v>
       </c>
       <c r="E250" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="251">
@@ -4642,7 +4429,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>58</v>
+        <v>8</v>
       </c>
     </row>
     <row r="252">
@@ -4659,7 +4446,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
     </row>
     <row r="253">
@@ -4676,7 +4463,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -4693,7 +4480,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>61</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4710,7 +4497,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4727,7 +4514,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4744,7 +4531,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -4761,7 +4548,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>65</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4778,7 +4565,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -4795,7 +4582,7 @@
         <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>67</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
@@ -4812,7 +4599,7 @@
         <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -4829,7 +4616,7 @@
         <v>1988.0</v>
       </c>
       <c r="E262" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="263">
@@ -4846,7 +4633,7 @@
         <v>1989.0</v>
       </c>
       <c r="E263" t="s">
-        <v>70</v>
+        <v>7</v>
       </c>
     </row>
     <row r="264">
@@ -4863,7 +4650,7 @@
         <v>1990.0</v>
       </c>
       <c r="E264" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
     </row>
     <row r="265">
@@ -4880,7 +4667,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>72</v>
+        <v>7</v>
       </c>
     </row>
     <row r="266">
@@ -4897,7 +4684,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>73</v>
+        <v>7</v>
       </c>
     </row>
     <row r="267">
@@ -4914,7 +4701,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>74</v>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
@@ -4931,7 +4718,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>75</v>
+        <v>7</v>
       </c>
     </row>
     <row r="269">
@@ -4948,7 +4735,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="270">
@@ -4965,7 +4752,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>77</v>
+        <v>7</v>
       </c>
     </row>
     <row r="271">
@@ -4982,7 +4769,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>78</v>
+        <v>7</v>
       </c>
     </row>
     <row r="272">
@@ -4999,7 +4786,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>79</v>
+        <v>7</v>
       </c>
     </row>
     <row r="273">
@@ -5016,7 +4803,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="274">
@@ -5033,7 +4820,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>81</v>
+        <v>7</v>
       </c>
     </row>
     <row r="275">
@@ -5050,7 +4837,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>82</v>
+        <v>7</v>
       </c>
     </row>
     <row r="276">
@@ -5067,7 +4854,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>83</v>
+        <v>7</v>
       </c>
     </row>
     <row r="277">
@@ -5084,7 +4871,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>84</v>
+        <v>7</v>
       </c>
     </row>
     <row r="278">
@@ -5101,7 +4888,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>85</v>
+        <v>7</v>
       </c>
     </row>
     <row r="279">
@@ -5118,7 +4905,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>86</v>
+        <v>7</v>
       </c>
     </row>
     <row r="280">
@@ -5135,7 +4922,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
     </row>
     <row r="281">
@@ -5152,7 +4939,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
     </row>
     <row r="282">
@@ -5169,7 +4956,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
     </row>
     <row r="283">
@@ -5186,7 +4973,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
     </row>
     <row r="284">
@@ -5203,7 +4990,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
     </row>
     <row r="285">
@@ -5220,7 +5007,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
     </row>
     <row r="286">
@@ -5237,7 +5024,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>92</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -5255,50 +5042,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>95</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
